--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2710759.825111089</v>
+        <v>2708364.169105909</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>307.5613049877669</v>
+        <v>29.76460620899968</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -716,10 +716,10 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.10129804361565</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>124.3077000323477</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>111.9078770637661</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>166.6677888758697</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>66.12803363640413</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>76.60129660960703</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>239.5094493590958</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.5259815268586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>138.6444867920672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.1605539371075</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223835</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>92.20984583428664</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187873</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>28.75188085811999</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654087</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1982.600918459333</v>
+        <v>912.1695357815252</v>
       </c>
       <c r="C2" t="n">
-        <v>1982.600918459333</v>
+        <v>912.1695357815252</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>882.1042769845558</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>882.1042769845558</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>875.1587762353523</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>458.7065149272269</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178222</v>
+        <v>455.1003844723706</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136012</v>
+        <v>692.7231656905618</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693613</v>
+        <v>988.7937322481638</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929196</v>
+        <v>1436.225927159629</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.289016245829</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2409.174064624698</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459333</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.600918459333</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.600918459333</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.600918459333</v>
+        <v>1298.769375845647</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>77.11538214995042</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>198.538474420229</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>408.1293476730593</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130381</v>
+        <v>672.0688791685463</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>1313.09208878844</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>1941.820736623861</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.1979320213401</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="C4" t="n">
-        <v>614.2617490934332</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="D4" t="n">
-        <v>614.2617490934332</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="E4" t="n">
-        <v>466.3486555110401</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="F4" t="n">
-        <v>319.4587080131298</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131298</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637151</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>1185.63897599511</v>
+        <v>1108.730062521422</v>
       </c>
       <c r="T4" t="n">
-        <v>1185.63897599511</v>
+        <v>884.3189032968598</v>
       </c>
       <c r="U4" t="n">
-        <v>1185.63897599511</v>
+        <v>595.1822762889619</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.63897599511</v>
+        <v>340.4977880830751</v>
       </c>
       <c r="W4" t="n">
-        <v>1185.63897599511</v>
+        <v>340.4977880830751</v>
       </c>
       <c r="X4" t="n">
-        <v>1185.63897599511</v>
+        <v>112.5082371850577</v>
       </c>
       <c r="Y4" t="n">
-        <v>964.8463968515798</v>
+        <v>112.5082371850577</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1021.918444621844</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>652.9559276814325</v>
+        <v>898.1833666278133</v>
       </c>
       <c r="D5" t="n">
-        <v>652.9559276814325</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="E5" t="n">
-        <v>652.9559276814325</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>241.970022891825</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>230.328585132361</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.75269821716</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.984042947046</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.518284685966</v>
+        <v>2043.885055608158</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.518284685966</v>
+        <v>1653.745723632347</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K6" t="n">
-        <v>491.5015312480865</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L6" t="n">
-        <v>788.8134803644011</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856727</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1016.553075282091</v>
+        <v>455.5082205609626</v>
       </c>
       <c r="C7" t="n">
-        <v>847.616892354184</v>
+        <v>286.5720376330557</v>
       </c>
       <c r="D7" t="n">
-        <v>697.5002529418482</v>
+        <v>286.5720376330557</v>
       </c>
       <c r="E7" t="n">
-        <v>549.5871593594551</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>402.6972118615447</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>234.7210231234341</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4744,31 +4744,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159846</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1227.599429701827</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1227.599429701827</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>972.9149414959405</v>
       </c>
       <c r="W7" t="n">
-        <v>1646.983670153878</v>
+        <v>683.49777145898</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.994119255861</v>
+        <v>455.5082205609626</v>
       </c>
       <c r="Y7" t="n">
-        <v>1198.201540112331</v>
+        <v>455.5082205609626</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>843.7422005952644</v>
+        <v>1443.936635928374</v>
       </c>
       <c r="C8" t="n">
-        <v>843.7422005952644</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
         <v>843.7422005952644</v>
@@ -4799,55 +4799,55 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599812</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2127.768178542059</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618235</v>
+        <v>1796.705291198488</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.759455348121</v>
+        <v>1443.936635928374</v>
       </c>
       <c r="X8" t="n">
-        <v>946.2936970870408</v>
+        <v>1443.936635928374</v>
       </c>
       <c r="Y8" t="n">
-        <v>843.7422005952644</v>
+        <v>1443.936635928374</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>426.7768722128334</v>
       </c>
       <c r="L9" t="n">
-        <v>724.0888213291482</v>
+        <v>724.088821329148</v>
       </c>
       <c r="M9" t="n">
-        <v>1090.394710821474</v>
+        <v>1090.394710821473</v>
       </c>
       <c r="N9" t="n">
         <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>1815.732952862747</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.7657712454554</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="C10" t="n">
-        <v>349.8295883175485</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="D10" t="n">
-        <v>199.7129489052128</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910903</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458853</v>
       </c>
       <c r="U10" t="n">
-        <v>1357.865893164276</v>
+        <v>836.3602904692516</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.820957010673</v>
+        <v>581.6758022633647</v>
       </c>
       <c r="W10" t="n">
-        <v>928.4037869737125</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4142360756952</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.4142360756952</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.921287069096</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.846060413294</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.161572207407</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
         <v>402.7245934908939</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5650,19 +5650,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>143.3909986625054</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083437</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>79.36488908811543</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.1946181815976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95524621405775</v>
+        <v>359.2821607945066</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>204.6347509527519</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>191.4694788103614</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144498</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.763924374041</v>
       </c>
       <c r="P9" t="n">
-        <v>148.4266296017856</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019582887</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>119.8635921600924</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639038</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>813639.3549583799</v>
+        <v>813639.3549583796</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898933</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260482</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.7547252481</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695044</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695035</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695082</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.480531695072</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695116</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695116</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531980.4336961205</v>
+        <v>-531980.4336961214</v>
       </c>
       <c r="C6" t="n">
-        <v>261521.212014774</v>
+        <v>261521.2120147762</v>
       </c>
       <c r="D6" t="n">
         <v>434285.5718046695</v>
       </c>
       <c r="E6" t="n">
-        <v>37418.40165065213</v>
+        <v>37383.66372521591</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.269396403</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.531470967</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964029</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="J6" t="n">
-        <v>368893.2525703546</v>
+        <v>368858.5146449191</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.2693964029</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709676</v>
       </c>
       <c r="M6" t="n">
-        <v>407422.8124921673</v>
+        <v>407388.074566732</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964026</v>
+        <v>538272.5314709669</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522348</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>47.12173663291605</v>
+        <v>324.9184354116833</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>106.5372566391917</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
-        <v>76.13982433895384</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>188.8784101846937</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>203.0633118025993</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.30592901016504</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>70.55976360183993</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>125.7634424119118</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.711957129195</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>113.4931565317608</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>160.3624443994835</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31434,28 +31434,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153336</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,34 +33737,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120944</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852624</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828353</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>451.9517120317826</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223259</v>
       </c>
       <c r="Q2" t="n">
-        <v>182.6451530467556</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>25.57123921932396</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>122.6495881517965</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>211.7079527806367</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>368.1712769547966</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422580004</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>378.7044084817512</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K6" t="n">
-        <v>380.0164378035054</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>600.1700598319393</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35106,13 +35106,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>512.0757230765976</v>
       </c>
       <c r="P9" t="n">
-        <v>400.4233244149358</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779320004</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.444496528761</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709321</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383908</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
